--- a/NoteMarketPlace - Data Dictionary.xlsx
+++ b/NoteMarketPlace - Data Dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="137">
   <si>
     <t>First Name</t>
   </si>
@@ -150,15 +150,9 @@
     <t>Added Date</t>
   </si>
   <si>
-    <t>Admin Id</t>
-  </si>
-  <si>
     <t>Phone No.</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
     <t>profile picture</t>
   </si>
   <si>
@@ -264,18 +258,12 @@
     <t>Country Code</t>
   </si>
   <si>
-    <t>USER DETAILS TABLE</t>
-  </si>
-  <si>
     <t>Notes Details Table</t>
   </si>
   <si>
     <t>Reviewed By</t>
   </si>
   <si>
-    <t>Admin Role</t>
-  </si>
-  <si>
     <t>Role Id</t>
   </si>
   <si>
@@ -363,15 +351,9 @@
     <t>Institute</t>
   </si>
   <si>
-    <t>Only two roles (0 &amp; 1)</t>
-  </si>
-  <si>
     <t>Values are : M or F</t>
   </si>
   <si>
-    <t>Reference from Admin Role Table</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -390,15 +372,9 @@
     <t>values : Draft, InReview, Published, Rejected, Unpublished</t>
   </si>
   <si>
-    <t>Values: Super Admin &amp; Admin</t>
-  </si>
-  <si>
     <t>IsEmailVerified</t>
   </si>
   <si>
-    <t>Default : false</t>
-  </si>
-  <si>
     <t>Spam Notes Table</t>
   </si>
   <si>
@@ -409,6 +385,48 @@
   </si>
   <si>
     <t>PurchaseId</t>
+  </si>
+  <si>
+    <t>USER Profile TABLE</t>
+  </si>
+  <si>
+    <t>USERS TABLE</t>
+  </si>
+  <si>
+    <t>IsActive</t>
+  </si>
+  <si>
+    <t>Create_Date</t>
+  </si>
+  <si>
+    <t>Modified_Date</t>
+  </si>
+  <si>
+    <t>Modified_By</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Reference from Users Table</t>
+  </si>
+  <si>
+    <t>Updated_Date</t>
+  </si>
+  <si>
+    <t>Reference from User Table Table</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Secondary_Email</t>
   </si>
 </sst>
 </file>
@@ -812,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B191" sqref="B191"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -829,7 +847,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -847,962 +865,973 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="10" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" s="3" customFormat="1" ht="15">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" s="3" customFormat="1" ht="15">
+      <c r="A21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="7" customFormat="1">
+      <c r="A22" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>105</v>
+      <c r="A23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75">
-      <c r="A29" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" ht="15">
-      <c r="A30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>120</v>
+        <v>17</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="A40" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75">
-      <c r="A55" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-    </row>
-    <row r="56" spans="1:4" ht="15">
-      <c r="A56" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75">
-      <c r="A63" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-    </row>
-    <row r="64" spans="1:4" ht="15">
-      <c r="A64" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75">
+      <c r="A66" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+    </row>
+    <row r="67" spans="1:4" ht="15">
+      <c r="A67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75">
+      <c r="A74" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="A75" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75">
-      <c r="A79" s="11" t="s">
+      <c r="B80" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-    </row>
-    <row r="80" spans="1:4" ht="15">
-      <c r="A80" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>100</v>
+      <c r="C80" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75">
-      <c r="A85" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-    </row>
-    <row r="86" spans="1:4" ht="15">
-      <c r="A86" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" s="7" customFormat="1">
-      <c r="A87" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D87" s="5"/>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>87</v>
+      <c r="B83" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75">
+      <c r="A87" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="1:4" ht="15">
+      <c r="A88" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>102</v>
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75">
-      <c r="A94" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-    </row>
-    <row r="95" spans="1:4" ht="15">
-      <c r="A95" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" s="7" customFormat="1">
-      <c r="A96" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D96" s="5"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1" t="s">
-        <v>49</v>
+      <c r="C91" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75">
+      <c r="A95" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="1:4" ht="15">
+      <c r="A96" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="7" customFormat="1">
+      <c r="A97" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="D97" s="5"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>48</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -1810,746 +1839,842 @@
     </row>
     <row r="105" spans="1:4" ht="15">
       <c r="A105" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" s="6" customFormat="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="7" customFormat="1">
       <c r="A106" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D106" s="5"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75">
-      <c r="A113" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-    </row>
-    <row r="114" spans="1:4" ht="15">
-      <c r="A114" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>90</v>
-      </c>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75">
+      <c r="A114" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:4" ht="15">
+      <c r="A115" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="6" customFormat="1">
+      <c r="A116" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D116" s="5"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75">
-      <c r="A122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
-    </row>
-    <row r="123" spans="1:4" ht="15">
-      <c r="A123" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75">
+      <c r="A123" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+    </row>
+    <row r="124" spans="1:4" ht="15">
+      <c r="A124" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75">
+      <c r="A132" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="11"/>
+    </row>
+    <row r="133" spans="1:4" ht="15">
+      <c r="A133" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75">
-      <c r="A136" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-    </row>
-    <row r="137" spans="1:4" ht="15">
-      <c r="A137" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>100</v>
+      <c r="C137" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>120</v>
+        <v>61</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>120</v>
+        <v>103</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75">
+      <c r="A146" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75">
-      <c r="A148" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
-    </row>
-    <row r="149" spans="1:4" ht="15">
-      <c r="A149" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>100</v>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="11"/>
+    </row>
+    <row r="147" spans="1:4" ht="15">
+      <c r="A147" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>120</v>
+        <v>35</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75">
-      <c r="A160" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
-    </row>
-    <row r="161" spans="1:4" ht="15">
-      <c r="A161" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75">
+      <c r="A158" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+    </row>
+    <row r="159" spans="1:4" ht="15">
+      <c r="A159" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>120</v>
+        <v>75</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75">
-      <c r="A172" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-    </row>
-    <row r="173" spans="1:4" ht="15">
-      <c r="A173" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75">
+      <c r="A170" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="11"/>
+    </row>
+    <row r="171" spans="1:4" ht="15">
+      <c r="A171" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75">
+      <c r="A182" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+    </row>
+    <row r="183" spans="1:4" ht="15">
+      <c r="A183" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="C186" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="C187" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1" t="s">
+      <c r="C188" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>102</v>
+      <c r="B189" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
     <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A182:D182"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A123:D123"/>
     <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A172:D172"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A113:D113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
